--- a/public/template_prodi.xlsx
+++ b/public/template_prodi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\PBL4_Sem4\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1CD5DB77-CDB5-439E-9BA0-A66A559F98C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{66E23D95-8904-461E-89BD-631E44BC3DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{534D6F37-F641-48B5-8112-0463ED3018BB}"/>
   </bookViews>
@@ -34,12 +34,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>No.</t>
-  </si>
-  <si>
-    <t>prodi_id</t>
   </si>
   <si>
     <t>nama_prodi</t>
@@ -414,12 +411,13 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="37.26953125" customWidth="1"/>
+    <col min="2" max="2" width="40.453125" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="18.36328125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -433,20 +431,18 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>3</v>
       </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="D2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
